--- a/INTLINE/data/566/BSP/Selected Domestic Interest Rates_historical.xlsx
+++ b/INTLINE/data/566/BSP/Selected Domestic Interest Rates_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="579">
   <si>
     <t>1975-01</t>
   </si>
@@ -1718,6 +1718,9 @@
   </si>
   <si>
     <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-05</t>
   </si>
   <si>
     <t>TBR91</t>
@@ -2105,13 +2108,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:UW7"/>
+  <dimension ref="A1:UX7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:569">
+    <row r="1" spans="1:570">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3816,10 +3819,13 @@
       <c r="UW1" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="UX1" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="2" spans="1:569">
+    <row r="2" spans="1:570">
       <c r="A2" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B2">
         <v>10.364</v>
@@ -4164,88 +4170,88 @@
         <v>26.628</v>
       </c>
       <c r="DL2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DM2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DN2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DO2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DP2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DQ2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DR2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DS2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DT2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DU2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DV2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DW2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DX2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DY2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DZ2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EA2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EB2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EC2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ED2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EE2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EF2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EG2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EH2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EI2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EJ2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EK2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EL2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EM2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EN2">
         <v>11.3193891675025</v>
@@ -4863,7 +4869,7 @@
         <v>6.439</v>
       </c>
       <c r="MK2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ML2">
         <v>6.203</v>
@@ -4935,7 +4941,7 @@
         <v>5.389</v>
       </c>
       <c r="NI2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NJ2">
         <v>4.912</v>
@@ -4971,7 +4977,7 @@
         <v>4.837</v>
       </c>
       <c r="NU2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NV2">
         <v>3.483</v>
@@ -4989,7 +4995,7 @@
         <v>3.031</v>
       </c>
       <c r="OA2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OB2">
         <v>3.551</v>
@@ -5007,40 +5013,40 @@
         <v>3.689</v>
       </c>
       <c r="OG2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OH2">
         <v>3.673</v>
       </c>
       <c r="OI2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OJ2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OK2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OL2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OM2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ON2">
         <v>5.699</v>
       </c>
       <c r="OO2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OP2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OQ2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OR2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OS2">
         <v>6.122</v>
@@ -5049,7 +5055,7 @@
         <v>4.647</v>
       </c>
       <c r="OU2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OV2">
         <v>4.408</v>
@@ -5145,7 +5151,7 @@
         <v>0.484</v>
       </c>
       <c r="QA2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QB2">
         <v>0.944</v>
@@ -5169,7 +5175,7 @@
         <v>2.174</v>
       </c>
       <c r="QI2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QJ2">
         <v>1.904</v>
@@ -5223,7 +5229,7 @@
         <v>0.001</v>
       </c>
       <c r="RA2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RB2">
         <v>0.6929999999999999</v>
@@ -5262,7 +5268,7 @@
         <v>1.416</v>
       </c>
       <c r="RN2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RO2">
         <v>1.541</v>
@@ -5367,7 +5373,7 @@
         <v>2.148</v>
       </c>
       <c r="SW2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SX2">
         <v>2.277</v>
@@ -5525,10 +5531,13 @@
       <c r="UW2">
         <v>1.248409090909091</v>
       </c>
+      <c r="UX2">
+        <v>1.4845</v>
+      </c>
     </row>
-    <row r="3" spans="1:569">
+    <row r="3" spans="1:570">
       <c r="A3" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B3">
         <v>11.012</v>
@@ -5873,88 +5882,88 @@
         <v>26.751</v>
       </c>
       <c r="DL3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DM3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DN3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DO3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DP3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DQ3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DR3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DS3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DT3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DU3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DV3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DW3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DX3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DY3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DZ3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EA3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EB3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EC3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ED3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EE3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EF3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EG3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EH3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EI3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EJ3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EK3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EL3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EM3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EN3">
         <v>12.4302056074766</v>
@@ -6572,7 +6581,7 @@
         <v>7.51</v>
       </c>
       <c r="MK3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ML3">
         <v>7.386</v>
@@ -6644,7 +6653,7 @@
         <v>7.568</v>
       </c>
       <c r="NI3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NJ3">
         <v>6.473</v>
@@ -6680,7 +6689,7 @@
         <v>5.254</v>
       </c>
       <c r="NU3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NV3">
         <v>3.991</v>
@@ -6698,7 +6707,7 @@
         <v>3.958</v>
       </c>
       <c r="OA3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OB3">
         <v>4.639</v>
@@ -6722,25 +6731,25 @@
         <v>4.67</v>
       </c>
       <c r="OI3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OJ3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OK3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OL3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OM3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ON3">
         <v>6.483</v>
       </c>
       <c r="OO3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OP3">
         <v>6.476</v>
@@ -6752,7 +6761,7 @@
         <v>6.675</v>
       </c>
       <c r="OS3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OT3">
         <v>4.907</v>
@@ -6854,7 +6863,7 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="QA3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QB3">
         <v>1.14</v>
@@ -6932,13 +6941,13 @@
         <v>0.001</v>
       </c>
       <c r="RA3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RB3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RC3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RD3">
         <v>1.4</v>
@@ -6947,7 +6956,7 @@
         <v>1.696</v>
       </c>
       <c r="RF3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RG3">
         <v>1.481</v>
@@ -6956,7 +6965,7 @@
         <v>1.513</v>
       </c>
       <c r="RI3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RJ3">
         <v>1.65</v>
@@ -6971,7 +6980,7 @@
         <v>1.771</v>
       </c>
       <c r="RN3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RO3">
         <v>1.758</v>
@@ -7076,7 +7085,7 @@
         <v>2.563</v>
       </c>
       <c r="SW3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SX3">
         <v>2.544</v>
@@ -7234,10 +7243,13 @@
       <c r="UW3">
         <v>1.61</v>
       </c>
+      <c r="UX3">
+        <v>1.767185185185185</v>
+      </c>
     </row>
-    <row r="4" spans="1:569">
+    <row r="4" spans="1:570">
       <c r="A4" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B4">
         <v>11.724</v>
@@ -7561,109 +7573,109 @@
         <v>15.8</v>
       </c>
       <c r="DE4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DF4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DG4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DH4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DI4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DJ4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DK4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DL4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DM4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DN4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DO4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DP4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DQ4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DR4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DS4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DT4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DU4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DV4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DW4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DX4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DY4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="DZ4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EA4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EB4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EC4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ED4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EE4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EF4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EG4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EH4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EI4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EJ4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EK4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EL4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EM4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EN4">
         <v>13.9280415890751</v>
@@ -8215,10 +8227,10 @@
         <v>9.215</v>
       </c>
       <c r="LO4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LP4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LQ4">
         <v>6.073</v>
@@ -8236,7 +8248,7 @@
         <v>6.025</v>
       </c>
       <c r="LV4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LW4">
         <v>7.035</v>
@@ -8278,10 +8290,10 @@
         <v>7.551</v>
       </c>
       <c r="MJ4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="MK4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ML4">
         <v>8.128</v>
@@ -8290,7 +8302,7 @@
         <v>8.384</v>
       </c>
       <c r="MN4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="MO4">
         <v>8.897</v>
@@ -8353,7 +8365,7 @@
         <v>8.574999999999999</v>
       </c>
       <c r="NI4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NJ4">
         <v>7.429</v>
@@ -8389,7 +8401,7 @@
         <v>5.542</v>
       </c>
       <c r="NU4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NV4">
         <v>4.379</v>
@@ -8398,16 +8410,16 @@
         <v>3.909</v>
       </c>
       <c r="NX4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NY4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NZ4">
         <v>5.174</v>
       </c>
       <c r="OA4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OB4">
         <v>5.438</v>
@@ -8434,7 +8446,7 @@
         <v>5.266</v>
       </c>
       <c r="OJ4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OK4">
         <v>5.845</v>
@@ -8467,7 +8479,7 @@
         <v>5.067</v>
       </c>
       <c r="OU4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OV4">
         <v>4.739</v>
@@ -8569,7 +8581,7 @@
         <v>1.079</v>
       </c>
       <c r="QC4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QD4">
         <v>2.077</v>
@@ -8641,13 +8653,13 @@
         <v>0.278</v>
       </c>
       <c r="RA4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RB4">
         <v>1.079</v>
       </c>
       <c r="RC4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RD4">
         <v>1.865</v>
@@ -8656,7 +8668,7 @@
         <v>1.972</v>
       </c>
       <c r="RF4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RG4">
         <v>1.754</v>
@@ -8680,7 +8692,7 @@
         <v>1.836</v>
       </c>
       <c r="RN4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RO4">
         <v>1.947</v>
@@ -8710,7 +8722,7 @@
         <v>1.878</v>
       </c>
       <c r="RX4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RY4">
         <v>1.952</v>
@@ -8746,10 +8758,10 @@
         <v>1.88</v>
       </c>
       <c r="SJ4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SK4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SL4">
         <v>2.276</v>
@@ -8785,7 +8797,7 @@
         <v>2.952</v>
       </c>
       <c r="SW4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SX4">
         <v>2.877</v>
@@ -8943,262 +8955,265 @@
       <c r="UW4">
         <v>1.8795</v>
       </c>
+      <c r="UX4">
+        <v>1.933</v>
+      </c>
     </row>
-    <row r="5" spans="1:569">
+    <row r="5" spans="1:570">
       <c r="A5" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="R5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="S5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="U5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="V5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="W5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="X5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AB5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AD5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AE5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AH5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AI5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AJ5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AP5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AQ5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AR5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AS5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AT5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AU5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AV5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AW5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AX5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AY5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AZ5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BA5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BB5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BC5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BD5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BE5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BF5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BG5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BH5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BI5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BJ5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BK5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BL5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BM5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BN5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BO5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BP5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BQ5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BR5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BS5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BT5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BU5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BV5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BW5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BX5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BY5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BZ5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CA5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CB5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CC5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CD5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CE5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CF5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CG5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CH5">
         <v>17.168</v>
@@ -10569,531 +10584,534 @@
         <v>6.542</v>
       </c>
       <c r="TV5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TW5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TX5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TY5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TZ5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UA5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UB5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UC5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UD5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UE5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UF5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UG5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UH5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UI5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UJ5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UK5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UL5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UM5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UN5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UO5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UP5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UQ5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UR5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="US5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UT5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UU5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UV5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UW5" t="s">
-        <v>577</v>
+        <v>578</v>
+      </c>
+      <c r="UX5" t="s">
+        <v>578</v>
       </c>
     </row>
-    <row r="6" spans="1:569">
+    <row r="6" spans="1:570">
       <c r="A6" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="R6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="S6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="U6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="V6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="W6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="X6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AB6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AD6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AE6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AH6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AI6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AJ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AP6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AQ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AR6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AS6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AT6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AU6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AV6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AW6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AX6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AY6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AZ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BA6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BB6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BC6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BD6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BE6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BF6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BG6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BH6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BI6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BJ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BK6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BL6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BM6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BN6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BO6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BP6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BQ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BR6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BS6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BT6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BU6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BV6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BW6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BX6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BY6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BZ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CA6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CB6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CC6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CD6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CE6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CF6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CG6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CH6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CI6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CJ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CK6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CL6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CM6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CN6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CO6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CP6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CQ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CR6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CS6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CT6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CU6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CV6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CW6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CX6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CY6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CZ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DA6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DB6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DC6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DD6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DE6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DF6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DG6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DH6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DI6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DJ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DK6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DL6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DM6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DN6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DO6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DP6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DQ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DR6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DS6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DT6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DU6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DV6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DW6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DX6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DY6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DZ6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="EA6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="EB6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="EC6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="ED6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EE6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EF6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EH6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EI6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EJ6">
         <v>11.084</v>
       </c>
       <c r="EK6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EL6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EM6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EN6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EO6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EP6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EQ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ER6">
         <v>13.468</v>
@@ -11105,13 +11123,13 @@
         <v>13.881</v>
       </c>
       <c r="EU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EV6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="EX6">
         <v>31.492</v>
@@ -11123,37 +11141,37 @@
         <v>21</v>
       </c>
       <c r="FA6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FB6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FC6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FD6">
         <v>17.175</v>
       </c>
       <c r="FE6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FF6">
         <v>17.556</v>
       </c>
       <c r="FG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FH6">
         <v>23</v>
       </c>
       <c r="FI6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FJ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FK6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FL6">
         <v>19.569</v>
@@ -11162,43 +11180,43 @@
         <v>28.346</v>
       </c>
       <c r="FN6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FO6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FP6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FQ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FR6">
         <v>25.164</v>
       </c>
       <c r="FS6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FV6">
         <v>34.429</v>
       </c>
       <c r="FW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FX6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FY6">
         <v>26</v>
       </c>
       <c r="FZ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GA6">
         <v>15</v>
@@ -11207,34 +11225,34 @@
         <v>12.429</v>
       </c>
       <c r="GC6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GD6">
         <v>15.464</v>
       </c>
       <c r="GE6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GF6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GH6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GI6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GJ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GK6">
         <v>18.785</v>
       </c>
       <c r="GL6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GM6">
         <v>10</v>
@@ -11261,7 +11279,7 @@
         <v>27</v>
       </c>
       <c r="GU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GV6">
         <v>5</v>
@@ -11297,7 +11315,7 @@
         <v>21.56</v>
       </c>
       <c r="HG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HH6">
         <v>17</v>
@@ -11306,7 +11324,7 @@
         <v>15</v>
       </c>
       <c r="HJ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HK6">
         <v>11.625</v>
@@ -11315,34 +11333,34 @@
         <v>13</v>
       </c>
       <c r="HM6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HN6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HO6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HP6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HQ6">
         <v>45</v>
       </c>
       <c r="HR6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HS6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HU6">
         <v>33.4775</v>
       </c>
       <c r="HV6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="HW6">
         <v>30.536</v>
@@ -11363,7 +11381,7 @@
         <v>14.4932</v>
       </c>
       <c r="IC6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ID6">
         <v>8.1875</v>
@@ -11414,16 +11432,16 @@
         <v>16.1224</v>
       </c>
       <c r="IT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="IU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="IV6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="IW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="IX6">
         <v>15.9427</v>
@@ -11450,10 +11468,10 @@
         <v>13.25</v>
       </c>
       <c r="JF6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="JG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="JH6">
         <v>12.75</v>
@@ -11474,7 +11492,7 @@
         <v>22</v>
       </c>
       <c r="JN6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="JO6">
         <v>15.6719</v>
@@ -11534,7 +11552,7 @@
         <v>13.75</v>
       </c>
       <c r="KH6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="KI6">
         <v>11.2462</v>
@@ -11543,13 +11561,13 @@
         <v>11</v>
       </c>
       <c r="KK6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="KL6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="KM6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="KN6">
         <v>11</v>
@@ -11561,7 +11579,7 @@
         <v>11.8</v>
       </c>
       <c r="KQ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="KR6">
         <v>11</v>
@@ -11579,7 +11597,7 @@
         <v>12.25</v>
       </c>
       <c r="KW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="KX6">
         <v>12.3435</v>
@@ -11609,7 +11627,7 @@
         <v>11.7394</v>
       </c>
       <c r="LG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LH6">
         <v>11.25</v>
@@ -11630,34 +11648,34 @@
         <v>10.2475</v>
       </c>
       <c r="LN6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LO6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LP6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LQ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LR6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LS6">
         <v>9.25</v>
       </c>
       <c r="LT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LV6">
         <v>9.25</v>
       </c>
       <c r="LW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="LX6">
         <v>9.25</v>
@@ -11669,7 +11687,7 @@
         <v>9.25</v>
       </c>
       <c r="MA6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="MB6">
         <v>9.25</v>
@@ -11750,10 +11768,10 @@
         <v>9.25</v>
       </c>
       <c r="NB6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NC6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ND6">
         <v>9.25</v>
@@ -11768,7 +11786,7 @@
         <v>9.5532</v>
       </c>
       <c r="NH6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NI6">
         <v>9.75</v>
@@ -11798,31 +11816,31 @@
         <v>9.75</v>
       </c>
       <c r="NR6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NS6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NV6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NX6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NY6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="NZ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OA6">
         <v>9.75</v>
@@ -11843,49 +11861,49 @@
         <v>7.5</v>
       </c>
       <c r="OG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OH6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OI6">
         <v>7</v>
       </c>
       <c r="OJ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OK6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OL6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OM6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="ON6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OO6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OP6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OQ6">
         <v>8</v>
       </c>
       <c r="OR6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OS6">
         <v>8</v>
       </c>
       <c r="OT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OV6">
         <v>6.75</v>
@@ -11894,873 +11912,876 @@
         <v>6.75</v>
       </c>
       <c r="OX6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OY6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="OZ6">
         <v>6.25</v>
       </c>
       <c r="PA6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PB6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PC6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PD6">
         <v>6</v>
       </c>
       <c r="PE6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PF6">
         <v>6</v>
       </c>
       <c r="PG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PH6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PI6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PJ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PK6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PL6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PM6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PN6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PO6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PP6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PQ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PR6">
         <v>6</v>
       </c>
       <c r="PS6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PU6">
         <v>6.25</v>
       </c>
       <c r="PV6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PX6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="PY6">
         <v>6.5</v>
       </c>
       <c r="PZ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QA6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QB6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QC6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QD6">
         <v>6.5</v>
       </c>
       <c r="QE6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QF6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QH6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QI6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QJ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QK6">
         <v>5.75</v>
       </c>
       <c r="QL6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QM6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QN6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QO6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QP6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QQ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QR6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QS6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QV6">
         <v>5.5</v>
       </c>
       <c r="QW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QX6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QY6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QZ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RA6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RB6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RC6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RD6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RE6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RF6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RG6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RH6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RI6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RJ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RK6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RL6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RM6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RN6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RO6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RP6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RQ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RR6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RS6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RT6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RU6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RV6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RW6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RX6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RY6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RZ6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SA6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SB6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SC6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SD6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="SE6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SF6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SG6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SH6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SI6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SJ6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SK6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SL6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SM6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SN6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SO6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SP6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SQ6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SR6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SS6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="ST6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SU6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SV6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SW6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SX6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SY6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="SZ6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TA6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TB6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TC6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TD6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TE6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TF6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TG6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TH6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TI6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TJ6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TK6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TL6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TM6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TN6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TO6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TP6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TQ6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TR6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TS6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TT6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TU6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TV6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TW6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TX6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TY6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="TZ6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UA6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UB6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UC6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UD6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UE6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UF6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UG6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UH6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UI6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UJ6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UK6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UL6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UM6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UN6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UO6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UP6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UQ6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UR6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="US6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UT6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UU6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UV6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="UW6" t="s">
-        <v>577</v>
+        <v>578</v>
+      </c>
+      <c r="UX6" t="s">
+        <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:569">
+    <row r="7" spans="1:570">
       <c r="A7" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="R7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="S7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="U7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="V7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="W7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="X7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AB7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AD7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AE7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AH7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AI7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AJ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AP7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AQ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AR7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AS7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AT7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AU7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AV7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AW7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AX7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AY7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AZ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BA7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BB7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BC7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BD7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BE7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BF7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BG7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BH7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BI7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BJ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BK7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BL7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BM7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BN7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BO7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BP7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BQ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BR7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BS7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BT7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BU7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BV7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BW7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BX7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BY7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="BZ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CA7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CB7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CC7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CD7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CE7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CF7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CG7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CH7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CI7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CJ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CK7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CL7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CM7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CN7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CO7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CP7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CQ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CR7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CS7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CT7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CU7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CV7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CW7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CX7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CY7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CZ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DA7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DB7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DC7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DD7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DE7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DF7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DG7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DH7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DI7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DJ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DK7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DL7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DM7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DN7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DO7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DP7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DQ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DR7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DS7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DT7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DU7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DV7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DW7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DX7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DY7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="DZ7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="EA7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="EB7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="EC7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="ED7">
         <v>11.392</v>
@@ -12772,7 +12793,7 @@
         <v>20</v>
       </c>
       <c r="EG7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="EH7">
         <v>9.363</v>
@@ -12784,7 +12805,7 @@
         <v>10</v>
       </c>
       <c r="EK7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="EL7">
         <v>10.26</v>
@@ -12844,7 +12865,7 @@
         <v>4.75</v>
       </c>
       <c r="FE7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FF7">
         <v>8.029999999999999</v>
@@ -12853,10 +12874,10 @@
         <v>8.835000000000001</v>
       </c>
       <c r="FH7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FI7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FJ7">
         <v>19.34</v>
@@ -12892,7 +12913,7 @@
         <v>14.492</v>
       </c>
       <c r="FU7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FV7">
         <v>25.449</v>
@@ -12904,22 +12925,22 @@
         <v>11.537</v>
       </c>
       <c r="FY7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="FZ7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GA7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GB7">
         <v>29.147</v>
       </c>
       <c r="GC7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GD7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GE7">
         <v>4.4</v>
@@ -12934,10 +12955,10 @@
         <v>30.828</v>
       </c>
       <c r="GI7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GJ7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="GK7">
         <v>56.647</v>
@@ -13750,10 +13771,10 @@
         <v>3.5</v>
       </c>
       <c r="QU7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QV7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QW7">
         <v>3.5</v>
@@ -13762,7 +13783,7 @@
         <v>3.5</v>
       </c>
       <c r="QY7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="QZ7">
         <v>3.5</v>
@@ -13780,10 +13801,10 @@
         <v>3.5</v>
       </c>
       <c r="RE7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RF7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="RG7">
         <v>3.5</v>
@@ -14069,6 +14090,9 @@
       </c>
       <c r="UW7">
         <v>2</v>
+      </c>
+      <c r="UX7">
+        <v>2.0968</v>
       </c>
     </row>
   </sheetData>
